--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/observations-summary.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Profile</t>
   </si>
@@ -119,7 +119,7 @@
     <t>jp-observation-radiology-findings</t>
   </si>
   <si>
-    <t>JP Core Observation Common Profile</t>
+    <t>JP Core Observation Radiology Findings Profile</t>
   </si>
   <si>
     <t>null#18782-3</t>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>jp-observation-radiology-impression</t>
+  </si>
+  <si>
+    <t>JP Core Observation Radiology Impression Profile</t>
   </si>
   <si>
     <t>null#19005-8</t>
@@ -516,7 +519,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>14</v>
@@ -525,7 +528,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>37</v>
@@ -548,13 +551,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
@@ -563,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>16</v>
@@ -583,13 +586,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
@@ -598,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>16</v>
